--- a/GameJam9/GameJam9/Content/Maptest3.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>iK</t>
   </si>
@@ -38,11 +38,13 @@
     <t>P</t>
   </si>
   <si>
-    <t>E3</t>
-    <phoneticPr fontId="1"/>
+    <t>E5</t>
   </si>
   <si>
-    <t>E5</t>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1243,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2499,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="CE8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2821,151 +2823,151 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AR10">
+        <v>4</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>4</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>5</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>4</v>
-      </c>
-      <c r="AF10">
-        <v>4</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>4</v>
-      </c>
-      <c r="AP10">
-        <v>4</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AR10">
-        <v>4</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>4</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>4</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -3470,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BS12">
         <v>0</v>
@@ -3631,136 +3633,136 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>4</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>4</v>
+      </c>
+      <c r="BW13" t="s">
         <v>5</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>4</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>4</v>
-      </c>
-      <c r="AW13">
-        <v>4</v>
-      </c>
-      <c r="AX13">
-        <v>4</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>4</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>4</v>
       </c>
       <c r="BX13">
         <v>0</v>
@@ -4335,8 +4337,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
+      <c r="J16" t="s">
+        <v>6</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4396,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -4408,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -4492,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -4507,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -4590,7 +4592,7 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -4619,11 +4621,11 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1</v>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4712,8 +4714,8 @@
       <c r="AW17">
         <v>0</v>
       </c>
-      <c r="AX17" t="s">
-        <v>1</v>
+      <c r="AX17">
+        <v>0</v>
       </c>
       <c r="AY17">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest3.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest3.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>iK</t>
-  </si>
-  <si>
-    <t>E4</t>
   </si>
   <si>
     <t>d</t>
@@ -449,7 +446,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1245,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2501,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="CE8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2823,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2955,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL10">
         <v>4</v>
@@ -2967,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2979,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -3212,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL11">
         <v>4</v>
@@ -3236,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3633,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -3761,8 +3758,8 @@
       <c r="BV13">
         <v>4</v>
       </c>
-      <c r="BW13" t="s">
-        <v>5</v>
+      <c r="BW13">
+        <v>0</v>
       </c>
       <c r="BX13">
         <v>0</v>
@@ -3782,8 +3779,8 @@
       <c r="CC13">
         <v>4</v>
       </c>
-      <c r="CD13" t="s">
-        <v>1</v>
+      <c r="CD13">
+        <v>0</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -4335,16 +4332,16 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -4353,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4494,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -4509,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -4610,10 +4607,10 @@
         <v>4</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4622,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -4673,16 +4670,16 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>2</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>3</v>
       </c>
       <c r="AN17">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest3.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest3.xlsx
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>iK</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -42,6 +36,14 @@
   </si>
   <si>
     <t>E3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,7 +448,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1242,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2498,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="CE8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2526,8 +2528,8 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2820,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2964,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -3351,7 +3353,7 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -4491,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -4506,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -4619,35 +4621,35 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
         <v>5</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>4</v>
-      </c>
-      <c r="X17">
-        <v>4</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
         <v>0</v>
       </c>
@@ -4669,8 +4671,8 @@
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>1</v>
+      <c r="AJ17">
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -4679,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN17">
         <v>0</v>
